--- a/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
+++ b/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/summer_2023_wqx_data/SWWTP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/summer_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC94B31A-B869-44CA-BB44-EBCE1C4FD1D8}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="-2640" windowWidth="24705" windowHeight="11385"/>
+    <workbookView xWindow="29355" yWindow="-1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,12 @@
     <definedName name="_xlnm.Database">'May Kenai River Fecals'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'May Kenai River Fecals'!$A:$H</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -185,14 +174,17 @@
   </si>
   <si>
     <t>TNTC</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -228,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +243,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -263,7 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -279,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -289,29 +291,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -693,94 +683,88 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <v>44.5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="G10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -805,8 +789,11 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I12" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -816,13 +803,13 @@
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G13" s="2">
@@ -832,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -842,13 +829,13 @@
       <c r="C14" s="2">
         <v>50</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G14" s="2">
@@ -858,7 +845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -868,13 +855,13 @@
       <c r="C15" s="2">
         <v>50</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G15" s="2">
@@ -884,7 +871,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -894,13 +881,13 @@
       <c r="C16" s="2">
         <v>50</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.4375</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G16" s="2">
@@ -920,13 +907,13 @@
       <c r="C17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G17" s="2">
@@ -946,13 +933,13 @@
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.40625</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G18" s="2">
@@ -963,28 +950,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A19" s="17">
+      <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>0.51736111111111105</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="2">
         <v>16</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="2">
         <v>16</v>
       </c>
     </row>
@@ -998,13 +985,13 @@
       <c r="C20" s="2">
         <v>100</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G20" s="2">
@@ -1024,13 +1011,13 @@
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.4548611111111111</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>0.51736111111111105</v>
       </c>
       <c r="G21" s="2">
@@ -1050,13 +1037,13 @@
       <c r="C22" s="2">
         <v>100</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G22" s="2">
@@ -1076,13 +1063,13 @@
       <c r="C23" s="2">
         <v>100</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.46249999999999997</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G23" s="2">
@@ -1102,13 +1089,13 @@
       <c r="C24" s="2">
         <v>100</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.44027777777777777</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G24" s="2">
@@ -1128,13 +1115,13 @@
       <c r="C25" s="2">
         <v>100</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.38125000000000003</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G25" s="2">
@@ -1154,13 +1141,13 @@
       <c r="C26" s="2">
         <v>100</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.41041666666666665</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G26" s="2">
@@ -1180,13 +1167,13 @@
       <c r="C27" s="2">
         <v>100</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.4826388888888889</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G27" s="2">
@@ -1206,13 +1193,13 @@
       <c r="C28" s="2">
         <v>100</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G28" s="2">
@@ -1232,13 +1219,13 @@
       <c r="C29" s="2">
         <v>100</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.4201388888888889</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G29" s="2">
@@ -1258,13 +1245,13 @@
       <c r="C30" s="2">
         <v>100</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>0.5708333333333333</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>0.53541666666666665</v>
       </c>
       <c r="G30" s="2">
@@ -1284,13 +1271,13 @@
       <c r="C31" s="2">
         <v>100</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G31" s="2">
@@ -1301,28 +1288,28 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A32" s="17">
+      <c r="A32" s="2">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="17">
-        <v>100</v>
-      </c>
-      <c r="D32" s="18">
+      <c r="C32" s="2">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>0.54236111111111118</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1336,13 +1323,13 @@
       <c r="C33" s="2">
         <v>100</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.34583333333333338</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G33" s="2">
@@ -1362,13 +1349,13 @@
       <c r="C34" s="2">
         <v>100</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>0.36527777777777781</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G34" s="2">
@@ -1388,13 +1375,13 @@
       <c r="C35" s="2">
         <v>100</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.38958333333333334</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G35" s="2">
@@ -1414,13 +1401,13 @@
       <c r="C36" s="2">
         <v>100</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.43958333333333338</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G36" s="2">
@@ -1440,13 +1427,13 @@
       <c r="C37" s="2">
         <v>100</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.41180555555555554</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G37" s="2">
@@ -1466,13 +1453,13 @@
       <c r="C38" s="2">
         <v>100</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G38" s="2">
@@ -1492,13 +1479,13 @@
       <c r="C39" s="2">
         <v>100</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.33888888888888885</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G39" s="2">
@@ -1518,13 +1505,13 @@
       <c r="C40" s="2">
         <v>0.5</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>0.58472222222222225</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>0.54236111111111118</v>
       </c>
       <c r="G40" s="2" t="s">

--- a/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
+++ b/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/summer_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC94B31A-B869-44CA-BB44-EBCE1C4FD1D8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF2BD77-6938-4207-B05E-8C3A531850E7}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="-1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="-1680" windowWidth="25875" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>LCS</t>
   </si>
 </sst>
 </file>
@@ -258,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -295,6 +307,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -317,6 +332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -683,7 +702,7 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
+    <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +713,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -707,7 +726,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -724,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -739,7 +758,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -751,20 +770,20 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:10" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -789,11 +808,14 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -818,8 +840,11 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -844,8 +869,11 @@
       <c r="H14" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -870,8 +898,11 @@
       <c r="H15" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -896,8 +927,11 @@
       <c r="H16" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -922,8 +956,11 @@
       <c r="H17" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -948,8 +985,11 @@
       <c r="H18" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -974,8 +1014,11 @@
       <c r="H19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1000,8 +1043,11 @@
       <c r="H20" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1026,8 +1072,11 @@
       <c r="H21" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1052,8 +1101,11 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1078,8 +1130,11 @@
       <c r="H23" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1104,8 +1159,11 @@
       <c r="H24" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1130,8 +1188,11 @@
       <c r="H25" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1156,8 +1217,11 @@
       <c r="H26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1182,8 +1246,11 @@
       <c r="H27" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1208,8 +1275,11 @@
       <c r="H28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1234,8 +1304,11 @@
       <c r="H29" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1260,8 +1333,11 @@
       <c r="H30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1286,8 +1362,11 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -1312,8 +1391,11 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1338,8 +1420,11 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -1364,8 +1449,11 @@
       <c r="H34" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -1390,8 +1478,11 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>24</v>
       </c>
@@ -1416,8 +1507,11 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -1442,8 +1536,11 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>26</v>
       </c>
@@ -1468,8 +1565,11 @@
       <c r="H38" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -1494,8 +1594,11 @@
       <c r="H39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="27.95" customHeight="1" thickBot="1">
+      <c r="I39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27.95" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>28</v>
       </c>
@@ -1520,29 +1623,32 @@
       <c r="H40" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="27.95" customHeight="1">
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.95" customHeight="1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:8" ht="27.95" customHeight="1">
+    <row r="42" spans="1:9" ht="27.95" customHeight="1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:8" ht="27.95" customHeight="1">
+    <row r="43" spans="1:9" ht="27.95" customHeight="1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:8" ht="27.95" customHeight="1">
+    <row r="44" spans="1:9" ht="27.95" customHeight="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:8" ht="27.95" customHeight="1">
+    <row r="45" spans="1:9" ht="27.95" customHeight="1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:8" ht="27.95" customHeight="1">
+    <row r="46" spans="1:9" ht="27.95" customHeight="1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:8" ht="27.95" customHeight="1">
+    <row r="47" spans="1:9" ht="27.95" customHeight="1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:8" ht="27.95" customHeight="1">
+    <row r="48" spans="1:9" ht="27.95" customHeight="1">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" ht="27.95" customHeight="1">

--- a/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
+++ b/other/input/2023/summer_2023_wqx_data/Data/SWWTP/KRWF Fecal 07-18-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2023/summer_2023_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF2BD77-6938-4207-B05E-8C3A531850E7}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{FFBD0B89-0538-458D-9FBE-D10C8DBD3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EABB9A7-77D3-466E-A746-52A3971C0D6B}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="-1680" windowWidth="25875" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="2865" windowWidth="21690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May Kenai River Fecals" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>FECAL COLIFORM ANALYSIS</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>LCS</t>
+  </si>
+  <si>
+    <t>rec_time</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -702,7 +706,7 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
+    <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -713,7 +717,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -726,7 +730,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -743,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -758,7 +762,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -770,7 +774,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
@@ -780,10 +784,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,14 +812,17 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K12" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -844,7 +851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -872,8 +879,11 @@
       <c r="I14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K14" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="I15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K15" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -930,8 +943,11 @@
       <c r="I16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K16" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -959,8 +975,11 @@
       <c r="I17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K17" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="I18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K18" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1017,8 +1039,11 @@
       <c r="I19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K19" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1046,8 +1071,11 @@
       <c r="I20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K20" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1075,8 +1103,11 @@
       <c r="I21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K21" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1105,7 +1136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1133,8 +1164,11 @@
       <c r="I23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K23" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1162,8 +1196,11 @@
       <c r="I24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K24" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1191,8 +1228,11 @@
       <c r="I25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K25" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1220,8 +1260,11 @@
       <c r="I26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K26" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1249,8 +1292,11 @@
       <c r="I27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K27" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1278,8 +1324,11 @@
       <c r="I28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K28" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1307,8 +1356,11 @@
       <c r="I29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K29" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1336,8 +1388,11 @@
       <c r="I30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K30" s="18">
+        <v>0.55208333333333304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1366,7 +1421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -1394,8 +1449,11 @@
       <c r="I32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K32" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1423,8 +1481,11 @@
       <c r="I33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K33" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -1452,8 +1513,11 @@
       <c r="I34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K34" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -1481,8 +1545,11 @@
       <c r="I35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K35" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>24</v>
       </c>
@@ -1510,8 +1577,11 @@
       <c r="I36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K36" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -1539,8 +1609,11 @@
       <c r="I37" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K37" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>26</v>
       </c>
@@ -1568,8 +1641,11 @@
       <c r="I38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="K38" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -1597,8 +1673,11 @@
       <c r="I39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="27.95" customHeight="1" thickBot="1">
+      <c r="K39" s="18">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>28</v>
       </c>
@@ -1627,28 +1706,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="27.95" customHeight="1">
+    <row r="41" spans="1:11" ht="27.95" customHeight="1">
       <c r="A41"/>
-    </row>
-    <row r="42" spans="1:9" ht="27.95" customHeight="1">
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27.95" customHeight="1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:9" ht="27.95" customHeight="1">
+    <row r="43" spans="1:11" ht="27.95" customHeight="1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:9" ht="27.95" customHeight="1">
+    <row r="44" spans="1:11" ht="27.95" customHeight="1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:9" ht="27.95" customHeight="1">
+    <row r="45" spans="1:11" ht="27.95" customHeight="1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:9" ht="27.95" customHeight="1">
+    <row r="46" spans="1:11" ht="27.95" customHeight="1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:9" ht="27.95" customHeight="1">
+    <row r="47" spans="1:11" ht="27.95" customHeight="1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:9" ht="27.95" customHeight="1">
+    <row r="48" spans="1:11" ht="27.95" customHeight="1">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" ht="27.95" customHeight="1">
